--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1408220.729388423</v>
+        <v>-1410777.045215674</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>157.5487985114059</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>85.17289288835083</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>126.4262622148184</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554005</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>203.7029035467948</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>52.8664224582317</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>318.5064167404121</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>56.22992883261801</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>46.66139061606903</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>110.2472230560238</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>237.4416321059436</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>182.6597864681142</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>180.317034524002</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>165.2069472921625</v>
       </c>
     </row>
     <row r="11">
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.594095449514112</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>119.6255281319621</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>114.5157480654943</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2162996298073</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1850,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>141.9101287729429</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>261.5505590167096</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2375,10 +2375,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>60.64713141731118</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>272.8976078885847</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>7.069540131683943</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1047.597637439306</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>678.6351204988939</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D2" t="n">
-        <v>678.6351204988939</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E2" t="n">
-        <v>519.4949199823222</v>
+        <v>194.542240332463</v>
       </c>
       <c r="F2" t="n">
         <v>108.5090151927147</v>
@@ -4331,7 +4331,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2881.634110354004</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2550.571223010433</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2197.802567740319</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1824.336809479239</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1434.197477503427</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>646.6939999491682</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4516,22 +4516,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="X4" t="n">
-        <v>867.4865790926983</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="Y4" t="n">
-        <v>646.6939999491682</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3268.807913697436</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3062.830166081658</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3062.830166081658</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2731.767278738087</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2731.767278738087</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>263.7614736385283</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>263.7614736385283</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>113.6448342261926</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>507.4345062145372</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>507.4345062145372</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>507.4345062145372</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W7" t="n">
-        <v>396.0736748448162</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="X7" t="n">
-        <v>396.0736748448162</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="Y7" t="n">
-        <v>396.0736748448162</v>
+        <v>445.409938468768</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416652</v>
+        <v>1749.723851760223</v>
       </c>
       <c r="C8" t="n">
-        <v>1049.698447476241</v>
+        <v>1749.723851760223</v>
       </c>
       <c r="D8" t="n">
-        <v>809.8584150459947</v>
+        <v>1391.458153153472</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>1005.669900555228</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,10 +4799,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
         <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416652</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>510.7590362090544</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C10" t="n">
-        <v>510.7590362090544</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967187</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>738.7485871070718</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V10" t="n">
-        <v>738.7485871070718</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W10" t="n">
-        <v>738.7485871070718</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X10" t="n">
-        <v>510.7590362090544</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y10" t="n">
-        <v>510.7590362090544</v>
+        <v>532.2446860521933</v>
       </c>
     </row>
     <row r="11">
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>2418.621364762389</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>2913.946970978148</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>3511.3254586047</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>4138.923422159307</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C13" t="n">
-        <v>634.334587849125</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
         <v>484.8112968429803</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="14">
@@ -5258,70 +5258,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5370,10 +5370,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622261</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343192</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892466</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5601,16 +5601,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.3544215660705</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5668,16 +5668,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1183.79546553984</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.0028863963103</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5838,19 +5838,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>538.7363435406111</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1713.268596655246</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1458.584108449359</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.166938412398</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>941.1773875143809</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>720.3848083708508</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5981,10 +5981,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,16 +5993,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,7 +6023,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6075,19 +6075,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6209,43 +6209,43 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6309,22 +6309,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356194</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2104.263230450254</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.578742244367</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.161572207406</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2313.467666357059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2546.729326731942</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1023.721406539404</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>854.7852236114967</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>704.6685841991609</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>556.7554906167678</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>409.8655431188574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>242.6694438337374</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>100.9576126759355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>1205.369871369643</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,13 +6786,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O37" t="n">
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717214</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
         <v>1483.79828551875</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111729</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,7 +7333,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7731,19 +7731,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7813,16 +7813,16 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,10 +7840,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>224.3815715608558</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>321.7031528533606</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -22632,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>14.6650638905373</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>172.8432329308055</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.09972495271805</v>
+        <v>148.6154730182163</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
     </row>
     <row r="17">
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>83.79952661609423</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>24.63391537253455</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>13.28686650065941</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>74.1962961868816</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>211.1765892730638</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26323,7 +26323,7 @@
         <v>161429.3199380012</v>
       </c>
       <c r="F2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="G2" t="n">
         <v>161429.3199380012</v>
@@ -26332,7 +26332,7 @@
         <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
-        <v>161429.3199380011</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
         <v>161429.3199380012</v>
@@ -26341,19 +26341,19 @@
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728569</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691503</v>
+        <v>11387.33216691507</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,34 +26430,34 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
+        <v>14826.6960418674</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14826.6960418674</v>
+      </c>
+      <c r="I4" t="n">
         <v>14826.69604186738</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>14826.69604186739</v>
+      </c>
+      <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="I4" t="n">
-        <v>14826.69604186737</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14826.69604186742</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14826.69604186737</v>
-      </c>
       <c r="L4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="M4" t="n">
         <v>22817.55530496082</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.5553049608</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="O4" t="n">
+        <v>22817.55530496082</v>
+      </c>
+      <c r="P4" t="n">
         <v>22817.55530496083</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22817.55530496084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1312664.305740444</v>
+        <v>-1313024.388756161</v>
       </c>
       <c r="C6" t="n">
-        <v>-37322.33069258912</v>
+        <v>-37322.33069258917</v>
       </c>
       <c r="D6" t="n">
-        <v>-37322.33069258918</v>
+        <v>-37322.33069258917</v>
       </c>
       <c r="E6" t="n">
-        <v>-279932.3677351284</v>
+        <v>-279967.1056605643</v>
       </c>
       <c r="F6" t="n">
-        <v>45480.09407222677</v>
+        <v>45445.356146791</v>
       </c>
       <c r="G6" t="n">
-        <v>45480.09407222668</v>
+        <v>45445.356146791</v>
       </c>
       <c r="H6" t="n">
-        <v>45480.09407222674</v>
+        <v>45445.356146791</v>
       </c>
       <c r="I6" t="n">
-        <v>45480.09407222662</v>
+        <v>45445.356146791</v>
       </c>
       <c r="J6" t="n">
-        <v>-172051.1083250507</v>
+        <v>-172085.8462504864</v>
       </c>
       <c r="K6" t="n">
-        <v>45480.09407222671</v>
+        <v>45445.35614679099</v>
       </c>
       <c r="L6" t="n">
-        <v>18798.96482034885</v>
+        <v>18798.96482034876</v>
       </c>
       <c r="M6" t="n">
-        <v>-46828.34512153129</v>
+        <v>-46828.34512153133</v>
       </c>
       <c r="N6" t="n">
-        <v>38226.68281398049</v>
+        <v>38226.68281398056</v>
       </c>
       <c r="O6" t="n">
         <v>38226.68281398056</v>
       </c>
       <c r="P6" t="n">
-        <v>38226.6828139805</v>
+        <v>38226.68281398056</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26790,10 +26790,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>124.5689097440836</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.18098183883712</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>46.76647503059547</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>52.95783295555783</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>99.77257203050014</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27822,25 +27822,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>176.2757752805672</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>117.2414095147394</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>224.2162592735972</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,10 +28062,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>105.8948036816109</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>53.37770605993234</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29095,10 +29095,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305189</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>369.1789913099997</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817582</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>152.0754244981388</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33506,16 +33506,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>639.4703354763103</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8027404478649</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,10 +33889,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33974,25 +33974,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>675.952017818248</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,13 +34384,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34451,22 +34451,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561599</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,7 +35501,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>226.5827468655553</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.39592053417488</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>508.128623392977</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>310.2064960034205</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37622,25 +37622,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>533.3557733738036</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
